--- a/config_11.10/xrqtl_new_config.xlsx
+++ b/config_11.10/xrqtl_new_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\新人七天乐\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="day1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="day5" sheetId="8" r:id="rId5"/>
     <sheet name="day6" sheetId="6" r:id="rId6"/>
     <sheet name="day7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId8"/>
+    <sheet name="jifen" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -125,21 +125,6 @@
   </si>
   <si>
     <t>累计捕获20只宝藏鳄鱼</t>
-  </si>
-  <si>
-    <t>3d捕鱼累计开炮抽取福利券500</t>
-  </si>
-  <si>
-    <t>3d捕鱼累计开炮抽取福利券800</t>
-  </si>
-  <si>
-    <t>3d捕鱼累计开炮抽取福利券1000</t>
-  </si>
-  <si>
-    <t>3d捕鱼累计开炮抽取福利券2000</t>
-  </si>
-  <si>
-    <t>3d捕鱼累计开炮抽取福利券3000</t>
   </si>
   <si>
     <t>水果消消乐投入96万及以上档次出现1次幸运时刻</t>
@@ -275,13 +260,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-  </si>
-  <si>
     <t>ty_icon_flq1_1</t>
   </si>
   <si>
@@ -369,12 +347,68 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>game_Fishing3DHall</t>
+  </si>
+  <si>
+    <t>{"ty_icon_jb_198y","ty_icon_hytb"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_MiniGame</t>
+  </si>
+  <si>
+    <t>3D捕鱼累计开炮抽取福利券500</t>
+  </si>
+  <si>
+    <t>3D捕鱼累计开炮抽取福利券800</t>
+  </si>
+  <si>
+    <t>3D捕鱼累计开炮抽取福利券1000</t>
+  </si>
+  <si>
+    <t>3D捕鱼累计开炮抽取福利券2000</t>
+  </si>
+  <si>
+    <t>3D捕鱼累计开炮抽取福利券3000</t>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by_icon_hedan_1_1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +465,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -469,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,7 +871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,7 +881,7 @@
     <col min="4" max="4" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -864,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -876,13 +919,16 @@
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -893,13 +939,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -910,13 +959,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -927,13 +979,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -944,10 +999,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="6:6" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -990,7 +1048,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1058,7 @@
     <col min="4" max="4" width="19.875" style="14" customWidth="1"/>
     <col min="5" max="5" width="36.625" style="14" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="14" customWidth="1"/>
     <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -1027,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1038,13 +1096,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1055,13 +1116,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1072,13 +1136,16 @@
         <v>14</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1089,13 +1156,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1106,10 +1176,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1123,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1133,7 +1206,7 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="36.875" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1159,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1170,13 +1243,16 @@
         <v>17</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1187,13 +1263,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1204,13 +1283,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1221,13 +1303,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1238,10 +1323,13 @@
         <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1344,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1266,7 +1354,7 @@
     <col min="4" max="4" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="35.125" customWidth="1"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1292,7 +1380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1303,13 +1391,16 @@
         <v>22</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1320,13 +1411,16 @@
         <v>23</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1337,13 +1431,16 @@
         <v>24</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1354,13 +1451,16 @@
         <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1371,10 +1471,13 @@
         <v>26</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1491,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1398,7 +1501,7 @@
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="35.125" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1424,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1436,13 +1539,16 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1454,13 +1560,16 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1472,13 +1581,16 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1490,13 +1602,16 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1508,10 +1623,13 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1643,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1535,7 +1653,7 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1555,13 +1673,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1569,17 +1687,20 @@
         <v>1000104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1587,17 +1708,20 @@
         <v>1000105</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1605,17 +1729,20 @@
         <v>1000106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1623,17 +1750,20 @@
         <v>1000107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1641,14 +1771,17 @@
         <v>1000108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1795,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1672,7 +1805,7 @@
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="36.125" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1692,13 +1825,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1706,17 +1839,20 @@
         <v>1000109</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1724,17 +1860,20 @@
         <v>1000110</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1742,17 +1881,20 @@
         <v>1000111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1760,17 +1902,20 @@
         <v>1000112</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1778,14 +1923,17 @@
         <v>1000113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1798,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1812,16 +1960,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1829,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="14">
         <v>10</v>
@@ -1842,11 +1990,11 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="D3" s="14">
         <v>50</v>
@@ -1857,10 +2005,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="14">
         <v>150</v>
@@ -1871,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="D5" s="14">
         <v>300</v>
@@ -1885,10 +2033,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="D6" s="14">
         <v>400</v>
@@ -1899,10 +2047,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D7" s="14">
         <v>500</v>
@@ -1911,5 +2059,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_11.10/xrqtl_new_config.xlsx
+++ b/config_11.10/xrqtl_new_config.xlsx
@@ -269,26 +269,6 @@
     <t>ty_icon_flq5</t>
   </si>
   <si>
-    <t>com_award_icon_jdk</t>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元京东卡</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>死灵之光（3天）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -401,6 +381,14 @@
       </rPr>
       <t>by_icon_hedan_1_1</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -925,7 +913,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -945,7 +933,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -965,7 +953,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -985,7 +973,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1005,7 +993,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="6:6" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1102,7 +1090,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1122,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1142,7 +1130,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1162,7 +1150,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1182,7 +1170,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1269,7 +1257,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1289,7 +1277,7 @@
         <v>37</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1309,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1329,7 +1317,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1385,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1417,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1437,7 +1425,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1457,7 +1445,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1477,7 +1465,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1533,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1566,7 +1554,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1587,7 +1575,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1608,7 +1596,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1629,7 +1617,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1675,7 @@
         <v>1000104</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
@@ -1697,7 +1685,7 @@
         <v>44</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1708,7 +1696,7 @@
         <v>1000105</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
@@ -1718,7 +1706,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1729,7 +1717,7 @@
         <v>1000106</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
@@ -1739,7 +1727,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1750,7 +1738,7 @@
         <v>1000107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="10" t="s">
@@ -1760,7 +1748,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1771,7 +1759,7 @@
         <v>1000108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="10" t="s">
@@ -1781,7 +1769,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1837,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1870,7 +1858,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1891,7 +1879,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1912,7 +1900,7 @@
         <v>49</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1927,13 +1915,13 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +1935,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1977,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="14">
         <v>10</v>
@@ -1991,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="14">
         <v>50</v>
@@ -2008,7 +1996,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="14">
         <v>150</v>
@@ -2022,7 +2010,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="14">
         <v>300</v>
@@ -2036,7 +2024,7 @@
         <v>67</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="14">
         <v>400</v>
@@ -2047,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D7" s="14">
         <v>500</v>

--- a/config_11.10/xrqtl_new_config.xlsx
+++ b/config_11.10/xrqtl_new_config.xlsx
@@ -19,7 +19,7 @@
     <sheet name="day5" sheetId="8" r:id="rId5"/>
     <sheet name="day6" sheetId="6" r:id="rId6"/>
     <sheet name="day7" sheetId="7" r:id="rId7"/>
-    <sheet name="jifen" sheetId="9" r:id="rId8"/>
+    <sheet name="day8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1935,7 +1935,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L16" sqref="K16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
